--- a/biology/Zoologie/Auditor/Auditor.xlsx
+++ b/biology/Zoologie/Auditor/Auditor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auditor (ou The Auditor); (né avant 1986 - 19 novembre 2003[1]) est un chien abandonné qui vivait sur les emprises de l'entreprise minière Montana Resources autour de Berkeley Pit, une mine de cuivre à ciel ouvert désaffectée, un site particulièrement toxique (classé Superfund) situé à proximité de Butte dans l'État du Montana aux États-Unis. 
-L'animal a été aperçu pour la première fois à la mine en 1986. Ce chien, d'aspect hirsute évitait de manière général tout contact humain. On lui a donné le nom d'Auditor (« Vérificateur ») en raison de son habitude d'apparaître à des moments inattendus. Auditor était probablement un chien de race puli car il possédait une toison torsadée, semblables à des dreadlocks, caractéristique de cette race. Les employés de la mine fournissaient nourriture, eau et gîte à l'animal, qui errait dans la mine, disparaissant souvent pendant plusieurs semaines d'affilée, interagissant le moins possible avec les humains. Après qu'il a commencé à montrer des signes d'arthrite, de l'aspirine a été ajoutée à sa nourriture. Auditor est décédé le 19 novembre 2003, il avait alors au moins 17 ans[2],[3],[4].
-Holly Peterson, une environnementaliste de Montana Tech, a analysé des échantillons de poils prélevés sur Auditor vers la fin de sa vie et y a détecté des niveaux élevés de « presque tous les éléments [chimiques] imaginables », elle a notamment relevé un niveau d'arsenic 128 fois supérieur à celui trouvé normalement dans des poils de chien. L'étude de Peterson a été publiée dans l'Intermountain Journal of Sciences en juin 2006[5]. Cette publication a rendu célèbre Auditor et Peterson a ultérieurement créé la Fondation Auditor en mémoire du chien via laquelle elle a fait ériger trois statues en bronze de l'animal à Butte[3],[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auditor (ou The Auditor); (né avant 1986 - 19 novembre 2003) est un chien abandonné qui vivait sur les emprises de l'entreprise minière Montana Resources autour de Berkeley Pit, une mine de cuivre à ciel ouvert désaffectée, un site particulièrement toxique (classé Superfund) situé à proximité de Butte dans l'État du Montana aux États-Unis. 
+L'animal a été aperçu pour la première fois à la mine en 1986. Ce chien, d'aspect hirsute évitait de manière général tout contact humain. On lui a donné le nom d'Auditor (« Vérificateur ») en raison de son habitude d'apparaître à des moments inattendus. Auditor était probablement un chien de race puli car il possédait une toison torsadée, semblables à des dreadlocks, caractéristique de cette race. Les employés de la mine fournissaient nourriture, eau et gîte à l'animal, qui errait dans la mine, disparaissant souvent pendant plusieurs semaines d'affilée, interagissant le moins possible avec les humains. Après qu'il a commencé à montrer des signes d'arthrite, de l'aspirine a été ajoutée à sa nourriture. Auditor est décédé le 19 novembre 2003, il avait alors au moins 17 ans.
+Holly Peterson, une environnementaliste de Montana Tech, a analysé des échantillons de poils prélevés sur Auditor vers la fin de sa vie et y a détecté des niveaux élevés de « presque tous les éléments [chimiques] imaginables », elle a notamment relevé un niveau d'arsenic 128 fois supérieur à celui trouvé normalement dans des poils de chien. L'étude de Peterson a été publiée dans l'Intermountain Journal of Sciences en juin 2006. Cette publication a rendu célèbre Auditor et Peterson a ultérieurement créé la Fondation Auditor en mémoire du chien via laquelle elle a fait ériger trois statues en bronze de l'animal à Butte,.
 </t>
         </is>
       </c>
